--- a/docs/medicationadministration-deqm.xlsx
+++ b/docs/medicationadministration-deqm.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="327">
   <si>
     <t>Path</t>
   </si>
@@ -125,13 +125,13 @@
     <t>Mapping: Quality Data Model</t>
   </si>
   <si>
-    <t>Mapping: Workflow Mapping</t>
+    <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: W5 Mapping</t>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -158,23 +158,17 @@
     <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
   </si>
   <si>
-    <t>The WG will be updating the MedicationAdministration resource  to adjust each affected resource to align with the workflow pattern (see workflow.html).</t>
-  </si>
-  <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}mad-2:Reason not given is only permitted if NotGiven is true {reasonNotGiven.empty() or notGiven = true}mad-3:Reason given is only permitted if NotGiven is false {reasonCode.empty() or notGiven.empty() or notGiven = 'false'}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Medication, Administered (generally, when MedicationAdministration.status="completed")</t>
   </si>
   <si>
-    <t>..Event</t>
+    <t>Event</t>
   </si>
   <si>
     <t>SubstanceAdministration</t>
-  </si>
-  <si>
-    <t>clinical.medication</t>
   </si>
   <si>
     <t>MedicationAdministration.id</t>
@@ -215,7 +209,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -231,11 +225,10 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -254,10 +247,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>extensible</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -283,17 +276,13 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -316,7 +305,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -336,10 +325,10 @@
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -354,7 +343,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -370,29 +363,31 @@
     <t>External identifier</t>
   </si>
   <si>
-    <t>External identifier - FHIR will generate its own internal identifiers (probably URLs) which do not need to be explicitly managed by the resource.  The identifier here is one that would be used by another non-FHIR system - for example an automated medication pump would provide a record each time it operated; an administration while the patient was off the ward might be made with a different system and entered after the event.  Particularly important if these records have to be updated.</t>
-  </si>
-  <si>
-    <t>…identifier</t>
+    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
   </si>
   <si>
     <t>.id</t>
   </si>
   <si>
-    <t>MedicationAdministration.definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(PlanDefinition|ActivityDefinition)
-</t>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.instantiates</t>
   </si>
   <si>
     <t>Instantiates protocol or definition</t>
   </si>
   <si>
-    <t>A protocol, guideline, orderset or other definition that was adhered to in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>…definition</t>
+    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Event.instantiates</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
@@ -411,7 +406,7 @@
     <t>A larger event of which this particular event is a component or step.</t>
   </si>
   <si>
-    <t>…part of</t>
+    <t>Event.partOf</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
@@ -420,10 +415,10 @@
     <t>MedicationAdministration.status</t>
   </si>
   <si>
-    <t>in-progress | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -435,38 +430,65 @@
     <t>A set of codes indicating the current status of a MedicationAdministration.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status</t>
-  </si>
-  <si>
-    <t>…status</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
+  </si>
+  <si>
+    <t>Event.status</t>
   </si>
   <si>
     <t>.statusCode</t>
   </si>
   <si>
-    <t>status</t>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>RXA-20-Completion Status</t>
   </si>
   <si>
-    <t>MedicationAdministration.category</t>
+    <t>MedicationAdministration.statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Reason administration not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the administration was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
+  </si>
+  <si>
+    <t>negationRationale</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
+  </si>
+  <si>
+    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category</t>
+  </si>
+  <si>
     <t>Type of medication usage</t>
   </si>
   <si>
-    <t>Indicates the type of medication administration and where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A coded concept describing where the medication administered is expected to occur</t>
+    <t>Indicates where the medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -484,7 +506,7 @@
     <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
   </si>
   <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>The set of RxNorm codes to represent medications</t>
@@ -496,13 +518,13 @@
     <t>code</t>
   </si>
   <si>
-    <t>…code</t>
+    <t>Event.code</t>
   </si>
   <si>
     <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
   </si>
   <si>
-    <t>what</t>
+    <t>FiveWs.what[x]</t>
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
@@ -521,13 +543,13 @@
     <t>The person or animal or group receiving the medication.</t>
   </si>
   <si>
-    <t>…subject</t>
+    <t>Event.subject</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
   </si>
   <si>
-    <t>who.focus</t>
+    <t>FiveWs.subject</t>
   </si>
   <si>
     <t>PID-3-Patient ID List</t>
@@ -543,16 +565,16 @@
     <t>Encounter or Episode of Care administered as part of</t>
   </si>
   <si>
-    <t>The visit, admission or other contact between patient and health care provider the medication administration was performed as part of.</t>
-  </si>
-  <si>
-    <t>…context</t>
+    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
   </si>
   <si>
-    <t>context</t>
+    <t>FiveWs.context</t>
   </si>
   <si>
     <t>PV1-19-Visit Number</t>
@@ -590,13 +612,13 @@
     <t>relevantPeriod</t>
   </si>
   <si>
-    <t>…occurrence[x]</t>
+    <t>Event.occurrence[x]</t>
   </si>
   <si>
     <t>.effectiveTime</t>
   </si>
   <si>
-    <t>when.done</t>
+    <t>FiveWs.done[x]</t>
   </si>
   <si>
     <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
@@ -609,23 +631,23 @@
 </t>
   </si>
   <si>
-    <t>Who administered substance</t>
-  </si>
-  <si>
-    <t>The individual who was responsible for giving the medication to the patient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t>Who performed the medication administration and what they did</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the medication administration and how they were involved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>…performer</t>
+    <t>Event.performer</t>
   </si>
   <si>
     <t>.participation[typeCode=PRF]</t>
   </si>
   <si>
-    <t>who.actor</t>
+    <t>FiveWs.actor</t>
   </si>
   <si>
     <t>RXA-10-Administering Provider / PRT-5-Participation Person: PRT-4-Participation='AP' (RXA-10 is deprecated)</t>
@@ -638,10 +660,10 @@
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -653,7 +675,7 @@
     <t>MedicationAdministration.performer.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -666,10 +688,35 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.function</t>
+  </si>
+  <si>
+    <t>Type of performance</t>
+  </si>
+  <si>
+    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
+  </si>
+  <si>
+    <t>A code describing the role an individual played in administering the medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF].functionCode</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.actor</t>
@@ -679,138 +726,53 @@
 </t>
   </si>
   <si>
-    <t>Individual who was performing</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who performed the action.</t>
-  </si>
-  <si>
-    <t>….actor</t>
+    <t>Who performed the medication administration</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the medication administration.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
   </si>
   <si>
     <t>.role</t>
   </si>
   <si>
-    <t>MedicationAdministration.performer.onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t>MedicationAdministration.reasonCode</t>
+  </si>
+  <si>
+    <t>Reason administration performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the medication was given.</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>RXE-27 Give Indication</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
 </t>
   </si>
   <si>
-    <t>Organization organization was acting for</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.</t>
-  </si>
-  <si>
-    <t>….onBehalfOf</t>
-  </si>
-  <si>
-    <t>.role.scopingOrganization</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.notGiven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if medication not administered</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the medication was NOT administered.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it indicates that a administration didn't happen.</t>
-  </si>
-  <si>
-    <t>If this is missing, then the medication was administered</t>
-  </si>
-  <si>
-    <t>…notDone</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>RXA-20-Completion Status='NA'</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.reasonNotGiven</t>
-  </si>
-  <si>
-    <t>Reason administration not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mad-2
-</t>
-  </si>
-  <si>
-    <t>negationRationale</t>
-  </si>
-  <si>
-    <t>…notDoneReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
-  </si>
-  <si>
-    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.reasonCode</t>
-  </si>
-  <si>
-    <t>Reason administration performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the medication was given.</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mad-3
-</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>…reasonGivenCodeableConcept</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>RXE-27 Give Indication</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
-</t>
-  </si>
-  <si>
-    <t>Condition or Observation that supports why the medication was administered</t>
+    <t>Condition or observation that supports why the medication was administered</t>
   </si>
   <si>
     <t>Condition or observation that supports why the medication was administered.</t>
@@ -819,19 +781,19 @@
     <t>This is a reference to a condition that is the reason for the medication request.  If only a code exists, use reasonCode.</t>
   </si>
   <si>
-    <t>…reasonReference</t>
+    <t>Event.reasonReference</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason for use ASSERTION"].value</t>
   </si>
   <si>
-    <t>why</t>
+    <t>FiveWs.why[x]</t>
   </si>
   <si>
     <t>no mapping</t>
   </si>
   <si>
-    <t>MedicationAdministration.prescription</t>
+    <t>MedicationAdministration.request</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/qicore/StructureDefinition/qicore-medicationrequest)
@@ -844,7 +806,10 @@
     <t>The original request, instruction or authority to perform the administration.</t>
   </si>
   <si>
-    <t>…basedOn</t>
+    <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
   </si>
   <si>
     <t>InFullfillmentOf-&gt;SubstanceAdministration</t>
@@ -885,7 +850,7 @@
     <t>Extra information about the medication administration that is not conveyed by the other attributes.</t>
   </si>
   <si>
-    <t>…note</t>
+    <t>Event.note</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=OBS,moodCode=EVN,code="annotation"].value</t>
@@ -900,7 +865,7 @@
     <t>Describes the medication dosage information details e.g. dose, rate, site, route, etc.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
   </si>
   <si>
@@ -939,7 +904,7 @@
     <t>A coded specification of the anatomic site where the medication first entered the body.  For example, "left arm".</t>
   </si>
   <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](https://build.fhir.org/ig/cqframework/qi-core/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
@@ -1037,7 +1002,7 @@
     <t>Dose quantity per unit of time</t>
   </si>
   <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.</t>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically, the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time, e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.</t>
   </si>
   <si>
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.</t>
@@ -1062,7 +1027,7 @@
     <t>A summary of the events of interest that have occurred, such as when the administration was verified.</t>
   </si>
   <si>
-    <t>This may not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -1214,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1233,7 +1198,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1259,9 +1224,9 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="81.1875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.44140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="100.578125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="20.3125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1424,9 +1389,7 @@
       <c r="L2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>47</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>42</v>
@@ -1487,19 +1450,19 @@
         <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AL2" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="AM2" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>42</v>
@@ -1510,7 +1473,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1521,28 +1484,28 @@
         <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1592,13 +1555,13 @@
         <v>42</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>42</v>
@@ -1607,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>42</v>
@@ -1627,7 +1590,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1638,7 +1601,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>42</v>
@@ -1647,16 +1610,16 @@
         <v>42</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1707,13 +1670,13 @@
         <v>42</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>42</v>
@@ -1742,7 +1705,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1753,28 +1716,28 @@
         <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1824,13 +1787,13 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>42</v>
@@ -1859,7 +1822,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1870,7 +1833,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1882,16 +1845,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1917,37 +1880,37 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -1976,18 +1939,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>42</v>
@@ -1999,16 +1962,16 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2058,16 +2021,16 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2079,7 +2042,7 @@
         <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>42</v>
@@ -2093,11 +2056,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2116,16 +2079,16 @@
         <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2175,7 +2138,7 @@
         <v>42</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2196,7 +2159,7 @@
         <v>42</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>42</v>
@@ -2210,11 +2173,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2233,16 +2196,16 @@
         <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2292,7 +2255,7 @@
         <v>42</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2313,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>42</v>
@@ -2327,11 +2290,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2344,24 +2307,26 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2409,7 +2374,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2430,7 +2395,7 @@
         <v>42</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>42</v>
@@ -2444,7 +2409,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2467,15 +2432,17 @@
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2524,7 +2491,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2542,13 +2509,13 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>42</v>
@@ -2579,16 +2546,16 @@
         <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2657,10 +2624,10 @@
         <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>42</v>
@@ -2674,7 +2641,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2694,16 +2661,16 @@
         <v>42</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2754,7 +2721,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -2772,10 +2739,10 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>42</v>
@@ -2789,7 +2756,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2797,31 +2764,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2847,66 +2814,66 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2917,10 +2884,10 @@
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>42</v>
@@ -2929,13 +2896,13 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2962,66 +2929,66 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3029,32 +2996,30 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3079,13 +3044,13 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -3103,13 +3068,13 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
@@ -3118,19 +3083,19 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>42</v>
@@ -3138,7 +3103,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3146,30 +3111,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3194,13 +3161,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3218,13 +3185,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3233,7 +3200,7 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>162</v>
@@ -3261,19 +3228,19 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>167</v>
@@ -3336,10 +3303,10 @@
         <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
@@ -3366,7 +3333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>174</v>
       </c>
@@ -3379,10 +3346,10 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>42</v>
@@ -3454,7 +3421,7 @@
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3466,24 +3433,24 @@
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3491,28 +3458,28 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3563,13 +3530,13 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3578,27 +3545,27 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3606,28 +3573,28 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3678,34 +3645,34 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
@@ -3713,7 +3680,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3724,7 +3691,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3733,16 +3700,16 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3793,34 +3760,34 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
@@ -3828,18 +3795,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3851,17 +3818,15 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3910,13 +3875,13 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
@@ -3931,7 +3896,7 @@
         <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>42</v>
@@ -3945,11 +3910,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3962,22 +3927,22 @@
         <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4027,7 +3992,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4048,7 +4013,7 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>42</v>
@@ -4062,39 +4027,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4142,13 +4111,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -4160,10 +4129,10 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>42</v>
@@ -4177,7 +4146,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4188,7 +4157,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4200,13 +4169,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4233,13 +4202,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4257,13 +4226,13 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
@@ -4275,10 +4244,10 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>42</v>
@@ -4290,9 +4259,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4300,39 +4269,35 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4376,13 +4341,13 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
@@ -4394,16 +4359,16 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4411,7 +4376,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4425,7 +4390,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>42</v>
@@ -4434,13 +4399,13 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4467,7 +4432,7 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>235</v>
@@ -4491,7 +4456,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4500,33 +4465,33 @@
         <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4540,7 +4505,7 @@
         <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>42</v>
@@ -4549,7 +4514,7 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>243</v>
@@ -4557,7 +4522,9 @@
       <c r="L29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4582,13 +4549,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4606,7 +4573,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4615,33 +4582,33 @@
         <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4652,7 +4619,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4664,16 +4631,16 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4723,13 +4690,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4741,24 +4708,24 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AO30" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4769,7 +4736,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4781,13 +4748,13 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4838,13 +4805,13 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -4856,16 +4823,16 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -4873,7 +4840,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4896,13 +4863,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4953,7 +4920,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -4971,16 +4938,16 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>42</v>
@@ -4988,7 +4955,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4999,7 +4966,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5011,13 +4978,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5068,28 +5035,28 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>42</v>
@@ -5103,7 +5070,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5114,7 +5081,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5126,13 +5093,13 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5183,19 +5150,19 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
@@ -5204,7 +5171,7 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>42</v>
@@ -5218,18 +5185,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5241,15 +5208,17 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5298,13 +5267,13 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
@@ -5319,7 +5288,7 @@
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>42</v>
@@ -5333,11 +5302,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5350,24 +5319,26 @@
         <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5415,7 +5386,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5436,7 +5407,7 @@
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>42</v>
@@ -5450,40 +5421,38 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5532,13 +5501,13 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
@@ -5553,7 +5522,7 @@
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>42</v>
@@ -5567,7 +5536,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5578,7 +5547,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5590,15 +5559,17 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5623,13 +5594,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5647,42 +5618,42 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AM38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5693,10 +5664,10 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>42</v>
@@ -5705,17 +5676,15 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5740,66 +5709,66 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5810,10 +5779,10 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
@@ -5822,15 +5791,17 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5855,66 +5826,66 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5925,10 +5896,10 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>42</v>
@@ -5937,16 +5908,16 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5972,66 +5943,66 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6042,10 +6013,10 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
@@ -6054,16 +6025,16 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6113,13 +6084,13 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -6128,19 +6099,19 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>42</v>
@@ -6148,7 +6119,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6159,7 +6130,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6171,16 +6142,16 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6230,13 +6201,13 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
@@ -6251,137 +6222,20 @@
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO44" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO44">
+  <autoFilter ref="A1:AO43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6391,7 +6245,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/medicationadministration-deqm.xlsx
+++ b/docs/medicationadministration-deqm.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="337">
   <si>
     <t>Path</t>
   </si>
@@ -125,13 +125,13 @@
     <t>Mapping: Quality Data Model</t>
   </si>
   <si>
-    <t>Mapping: Workflow Pattern</t>
+    <t>Mapping: Workflow Mapping</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
+    <t>Mapping: W5 Mapping</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -158,17 +158,23 @@
     <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
   </si>
   <si>
+    <t>The WG will be updating the MedicationAdministration resource  to adjust each affected resource to align with the workflow pattern (see workflow.html).</t>
+  </si>
+  <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}mad-2:Reason not given is only permitted if NotGiven is true {reasonNotGiven.empty() or notGiven = true}mad-3:Reason given is only permitted if NotGiven is false {reasonCode.empty() or notGiven.empty() or notGiven = 'false'}</t>
   </si>
   <si>
     <t>Medication, Administered (generally, when MedicationAdministration.status="completed")</t>
   </si>
   <si>
-    <t>Event</t>
+    <t>..Event</t>
   </si>
   <si>
     <t>SubstanceAdministration</t>
+  </si>
+  <si>
+    <t>clinical.medication</t>
   </si>
   <si>
     <t>MedicationAdministration.id</t>
@@ -209,7 +215,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -225,10 +231,11 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -247,10 +254,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -276,13 +283,17 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -305,7 +316,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -325,10 +336,10 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -343,11 +354,7 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -363,31 +370,29 @@
     <t>External identifier</t>
   </si>
   <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
+    <t>External identifier - FHIR will generate its own internal identifiers (probably URLs) which do not need to be explicitly managed by the resource.  The identifier here is one that would be used by another non-FHIR system - for example an automated medication pump would provide a record each time it operated; an administration while the patient was off the ward might be made with a different system and entered after the event.  Particularly important if these records have to be updated.</t>
+  </si>
+  <si>
+    <t>…identifier</t>
   </si>
   <si>
     <t>.id</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.instantiates</t>
+    <t>MedicationAdministration.definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(PlanDefinition|ActivityDefinition)
+</t>
   </si>
   <si>
     <t>Instantiates protocol or definition</t>
   </si>
   <si>
-    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Event.instantiates</t>
+    <t>A protocol, guideline, orderset or other definition that was adhered to in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>…definition</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
@@ -406,7 +411,7 @@
     <t>A larger event of which this particular event is a component or step.</t>
   </si>
   <si>
-    <t>Event.partOf</t>
+    <t>…part of</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
@@ -415,10 +420,10 @@
     <t>MedicationAdministration.status</t>
   </si>
   <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+    <t>in-progress | on-hold | completed | entered-in-error | stopped | unknown</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -430,65 +435,38 @@
     <t>A set of codes indicating the current status of a MedicationAdministration.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
-  </si>
-  <si>
-    <t>Event.status</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status</t>
+  </si>
+  <si>
+    <t>…status</t>
   </si>
   <si>
     <t>.statusCode</t>
   </si>
   <si>
-    <t>FiveWs.status</t>
+    <t>status</t>
   </si>
   <si>
     <t>RXA-20-Completion Status</t>
   </si>
   <si>
-    <t>MedicationAdministration.statusReason</t>
+    <t>MedicationAdministration.category</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Reason administration not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
-  </si>
-  <si>
-    <t>negationRationale</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
-  </si>
-  <si>
-    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category</t>
-  </si>
-  <si>
     <t>Type of medication usage</t>
   </si>
   <si>
-    <t>Indicates where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
+    <t>Indicates the type of medication administration and where the medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A coded concept describing where the medication administered is expected to occur</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -506,7 +484,7 @@
     <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
   </si>
   <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
   </si>
   <si>
     <t>The set of RxNorm codes to represent medications</t>
@@ -518,13 +496,13 @@
     <t>code</t>
   </si>
   <si>
-    <t>Event.code</t>
+    <t>…code</t>
   </si>
   <si>
     <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
   </si>
   <si>
-    <t>FiveWs.what[x]</t>
+    <t>what</t>
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
@@ -543,13 +521,13 @@
     <t>The person or animal or group receiving the medication.</t>
   </si>
   <si>
-    <t>Event.subject</t>
+    <t>…subject</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
   </si>
   <si>
-    <t>FiveWs.subject</t>
+    <t>who.focus</t>
   </si>
   <si>
     <t>PID-3-Patient ID List</t>
@@ -565,16 +543,16 @@
     <t>Encounter or Episode of Care administered as part of</t>
   </si>
   <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
+    <t>The visit, admission or other contact between patient and health care provider the medication administration was performed as part of.</t>
+  </si>
+  <si>
+    <t>…context</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
   </si>
   <si>
-    <t>FiveWs.context</t>
+    <t>context</t>
   </si>
   <si>
     <t>PV1-19-Visit Number</t>
@@ -612,13 +590,13 @@
     <t>relevantPeriod</t>
   </si>
   <si>
-    <t>Event.occurrence[x]</t>
+    <t>…occurrence[x]</t>
   </si>
   <si>
     <t>.effectiveTime</t>
   </si>
   <si>
-    <t>FiveWs.done[x]</t>
+    <t>when.done</t>
   </si>
   <si>
     <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
@@ -631,23 +609,23 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration and what they did</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration and how they were involved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Who administered substance</t>
+  </si>
+  <si>
+    <t>The individual who was responsible for giving the medication to the patient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Event.performer</t>
+    <t>…performer</t>
   </si>
   <si>
     <t>.participation[typeCode=PRF]</t>
   </si>
   <si>
-    <t>FiveWs.actor</t>
+    <t>who.actor</t>
   </si>
   <si>
     <t>RXA-10-Administering Provider / PRT-5-Participation Person: PRT-4-Participation='AP' (RXA-10 is deprecated)</t>
@@ -660,10 +638,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -675,7 +653,7 @@
     <t>MedicationAdministration.performer.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -688,35 +666,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.function</t>
-  </si>
-  <si>
-    <t>Type of performance</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in administering the medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF].functionCode</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.actor</t>
@@ -726,18 +679,99 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
+    <t>Individual who was performing</t>
+  </si>
+  <si>
+    <t>The device, practitioner, etc. who performed the action.</t>
+  </si>
+  <si>
+    <t>….actor</t>
   </si>
   <si>
     <t>.role</t>
   </si>
   <si>
+    <t>MedicationAdministration.performer.onBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization organization was acting for</t>
+  </si>
+  <si>
+    <t>The organization the device or practitioner was acting on behalf of.</t>
+  </si>
+  <si>
+    <t>….onBehalfOf</t>
+  </si>
+  <si>
+    <t>.role.scopingOrganization</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.notGiven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if medication not administered</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the medication was NOT administered.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it indicates that a administration didn't happen.</t>
+  </si>
+  <si>
+    <t>If this is missing, then the medication was administered</t>
+  </si>
+  <si>
+    <t>…notDone</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>RXA-20-Completion Status='NA'</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.reasonNotGiven</t>
+  </si>
+  <si>
+    <t>Reason administration not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the administration was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mad-2
+</t>
+  </si>
+  <si>
+    <t>negationRationale</t>
+  </si>
+  <si>
+    <t>…notDoneReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
+  </si>
+  <si>
+    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
+  </si>
+  <si>
     <t>MedicationAdministration.reasonCode</t>
   </si>
   <si>
@@ -753,10 +787,14 @@
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">mad-3
+</t>
+  </si>
+  <si>
     <t>reason</t>
   </si>
   <si>
-    <t>Event.reasonCode</t>
+    <t>…reasonGivenCodeableConcept</t>
   </si>
   <si>
     <t>.reasonCode</t>
@@ -768,11 +806,11 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|Observation)
 </t>
   </si>
   <si>
-    <t>Condition or observation that supports why the medication was administered</t>
+    <t>Condition or Observation that supports why the medication was administered</t>
   </si>
   <si>
     <t>Condition or observation that supports why the medication was administered.</t>
@@ -781,19 +819,19 @@
     <t>This is a reference to a condition that is the reason for the medication request.  If only a code exists, use reasonCode.</t>
   </si>
   <si>
-    <t>Event.reasonReference</t>
+    <t>…reasonReference</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason for use ASSERTION"].value</t>
   </si>
   <si>
-    <t>FiveWs.why[x]</t>
+    <t>why</t>
   </si>
   <si>
     <t>no mapping</t>
   </si>
   <si>
-    <t>MedicationAdministration.request</t>
+    <t>MedicationAdministration.prescription</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/qicore/StructureDefinition/qicore-medicationrequest)
@@ -806,10 +844,7 @@
     <t>The original request, instruction or authority to perform the administration.</t>
   </si>
   <si>
-    <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
+    <t>…basedOn</t>
   </si>
   <si>
     <t>InFullfillmentOf-&gt;SubstanceAdministration</t>
@@ -850,7 +885,7 @@
     <t>Extra information about the medication administration that is not conveyed by the other attributes.</t>
   </si>
   <si>
-    <t>Event.note</t>
+    <t>…note</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=OBS,moodCode=EVN,code="annotation"].value</t>
@@ -865,7 +900,7 @@
     <t>Describes the medication dosage information details e.g. dose, rate, site, route, etc.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
   </si>
   <si>
@@ -904,7 +939,7 @@
     <t>A coded specification of the anatomic site where the medication first entered the body.  For example, "left arm".</t>
   </si>
   <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
@@ -1002,7 +1037,7 @@
     <t>Dose quantity per unit of time</t>
   </si>
   <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically, the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time, e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.</t>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.</t>
   </si>
   <si>
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.</t>
@@ -1027,7 +1062,7 @@
     <t>A summary of the events of interest that have occurred, such as when the administration was verified.</t>
   </si>
   <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>This may not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -1179,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1198,7 +1233,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.16015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1224,9 +1259,9 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="81.1875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.44140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.0078125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="100.578125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="20.3125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1389,7 +1424,9 @@
       <c r="L2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>42</v>
@@ -1450,19 +1487,19 @@
         <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>42</v>
@@ -1473,7 +1510,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1484,7 +1521,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>42</v>
@@ -1493,19 +1530,19 @@
         <v>42</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1555,13 +1592,13 @@
         <v>42</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>42</v>
@@ -1570,7 +1607,7 @@
         <v>42</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>42</v>
@@ -1590,7 +1627,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1601,7 +1638,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>42</v>
@@ -1610,16 +1647,16 @@
         <v>42</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1670,13 +1707,13 @@
         <v>42</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>42</v>
@@ -1705,7 +1742,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1716,28 +1753,28 @@
         <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1787,13 +1824,13 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>42</v>
@@ -1822,7 +1859,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1833,7 +1870,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1845,16 +1882,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1880,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -1904,13 +1941,13 @@
         <v>42</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -1939,18 +1976,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>42</v>
@@ -1962,16 +1999,16 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2021,16 +2058,16 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2042,7 +2079,7 @@
         <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>42</v>
@@ -2056,11 +2093,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2079,16 +2116,16 @@
         <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2138,7 +2175,7 @@
         <v>42</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2159,7 +2196,7 @@
         <v>42</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>42</v>
@@ -2173,11 +2210,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2196,16 +2233,16 @@
         <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2255,7 +2292,7 @@
         <v>42</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2276,7 +2313,7 @@
         <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>42</v>
@@ -2290,11 +2327,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2307,26 +2344,24 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2374,7 +2409,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2395,7 +2430,7 @@
         <v>42</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>42</v>
@@ -2409,7 +2444,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2432,17 +2467,15 @@
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2491,7 +2524,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2509,13 +2542,13 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>42</v>
@@ -2546,16 +2579,16 @@
         <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2624,10 +2657,10 @@
         <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>42</v>
@@ -2641,7 +2674,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2661,16 +2694,16 @@
         <v>42</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2721,7 +2754,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -2739,10 +2772,10 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>42</v>
@@ -2756,7 +2789,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2764,31 +2797,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2814,13 +2847,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2838,13 +2871,13 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>42</v>
@@ -2856,24 +2889,24 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2884,10 +2917,10 @@
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>42</v>
@@ -2896,13 +2929,13 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2929,13 +2962,13 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -2953,13 +2986,13 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
@@ -2968,27 +3001,27 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2996,30 +3029,32 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3044,58 +3079,58 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>42</v>
@@ -3103,7 +3138,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3111,32 +3146,30 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3161,13 +3194,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3185,13 +3218,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3200,7 +3233,7 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>162</v>
@@ -3228,19 +3261,19 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>167</v>
@@ -3303,10 +3336,10 @@
         <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
@@ -3333,7 +3366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>174</v>
       </c>
@@ -3346,10 +3379,10 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>42</v>
@@ -3421,7 +3454,7 @@
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3433,24 +3466,24 @@
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3458,28 +3491,28 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3530,13 +3563,13 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3545,27 +3578,27 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AN20" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3573,28 +3606,28 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3645,34 +3678,34 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
@@ -3680,7 +3713,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3691,7 +3724,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3700,16 +3733,16 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3760,34 +3793,34 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
@@ -3795,18 +3828,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3818,15 +3851,17 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3875,13 +3910,13 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
@@ -3896,7 +3931,7 @@
         <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>42</v>
@@ -3910,11 +3945,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3927,22 +3962,22 @@
         <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3992,7 +4027,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4013,7 +4048,7 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>42</v>
@@ -4027,43 +4062,39 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4111,13 +4142,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -4129,10 +4160,10 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>42</v>
@@ -4146,7 +4177,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4157,7 +4188,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4169,13 +4200,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4202,66 +4233,66 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4269,35 +4300,39 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="Q27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4341,13 +4376,13 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
@@ -4359,16 +4394,16 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4376,7 +4411,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4390,7 +4425,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>42</v>
@@ -4399,13 +4434,13 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4432,7 +4467,7 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>235</v>
@@ -4456,7 +4491,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4465,33 +4500,33 @@
         <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4505,7 +4540,7 @@
         <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>42</v>
@@ -4514,7 +4549,7 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>243</v>
@@ -4522,9 +4557,7 @@
       <c r="L29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4549,13 +4582,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4573,7 +4606,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4582,33 +4615,33 @@
         <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4619,7 +4652,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4631,16 +4664,16 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4690,13 +4723,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4708,24 +4741,24 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4736,7 +4769,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4748,13 +4781,13 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4805,13 +4838,13 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -4823,16 +4856,16 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -4840,7 +4873,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4863,13 +4896,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4920,7 +4953,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -4938,16 +4971,16 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>42</v>
@@ -4955,7 +4988,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4966,7 +4999,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4978,13 +5011,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5035,28 +5068,28 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>42</v>
@@ -5070,7 +5103,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5081,7 +5114,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5093,13 +5126,13 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5150,19 +5183,19 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
@@ -5171,7 +5204,7 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>42</v>
@@ -5185,18 +5218,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5208,17 +5241,15 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5267,13 +5298,13 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
@@ -5288,7 +5319,7 @@
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>42</v>
@@ -5302,11 +5333,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5319,26 +5350,24 @@
         <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5386,7 +5415,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5407,7 +5436,7 @@
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>42</v>
@@ -5421,38 +5450,40 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5501,13 +5532,13 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
@@ -5522,7 +5553,7 @@
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>42</v>
@@ -5536,7 +5567,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5547,7 +5578,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5559,17 +5590,15 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5594,13 +5623,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5618,13 +5647,13 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
@@ -5639,21 +5668,21 @@
         <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5664,10 +5693,10 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>42</v>
@@ -5676,15 +5705,17 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5709,13 +5740,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5733,13 +5764,13 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
@@ -5748,27 +5779,27 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5779,10 +5810,10 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
@@ -5791,17 +5822,15 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5826,13 +5855,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5850,13 +5879,13 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
@@ -5865,27 +5894,27 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5896,10 +5925,10 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>42</v>
@@ -5908,16 +5937,16 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5943,13 +5972,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5967,13 +5996,13 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
@@ -5982,27 +6011,27 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6013,10 +6042,10 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
@@ -6025,16 +6054,16 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6084,13 +6113,13 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -6099,19 +6128,19 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>42</v>
@@ -6119,7 +6148,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6130,7 +6159,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6142,16 +6171,16 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6201,41 +6230,158 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO43" t="s" s="2">
+      <c r="G44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO43">
+  <autoFilter ref="A1:AO44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6245,7 +6391,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI42">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/medicationadministration-deqm.xlsx
+++ b/docs/medicationadministration-deqm.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="327">
   <si>
     <t>Path</t>
   </si>
@@ -125,13 +125,13 @@
     <t>Mapping: Quality Data Model</t>
   </si>
   <si>
-    <t>Mapping: Workflow Mapping</t>
+    <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: W5 Mapping</t>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -158,23 +158,17 @@
     <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
   </si>
   <si>
-    <t>The WG will be updating the MedicationAdministration resource  to adjust each affected resource to align with the workflow pattern (see workflow.html).</t>
-  </si>
-  <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}mad-2:Reason not given is only permitted if NotGiven is true {reasonNotGiven.empty() or notGiven = true}mad-3:Reason given is only permitted if NotGiven is false {reasonCode.empty() or notGiven.empty() or notGiven = 'false'}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Medication, Administered (generally, when MedicationAdministration.status="completed")</t>
   </si>
   <si>
-    <t>..Event</t>
+    <t>Event</t>
   </si>
   <si>
     <t>SubstanceAdministration</t>
-  </si>
-  <si>
-    <t>clinical.medication</t>
   </si>
   <si>
     <t>MedicationAdministration.id</t>
@@ -215,7 +209,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -231,11 +225,10 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -254,10 +247,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>extensible</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -283,17 +276,13 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -316,7 +305,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -336,10 +325,10 @@
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -354,7 +343,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -370,29 +363,31 @@
     <t>External identifier</t>
   </si>
   <si>
-    <t>External identifier - FHIR will generate its own internal identifiers (probably URLs) which do not need to be explicitly managed by the resource.  The identifier here is one that would be used by another non-FHIR system - for example an automated medication pump would provide a record each time it operated; an administration while the patient was off the ward might be made with a different system and entered after the event.  Particularly important if these records have to be updated.</t>
-  </si>
-  <si>
-    <t>…identifier</t>
+    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
   </si>
   <si>
     <t>.id</t>
   </si>
   <si>
-    <t>MedicationAdministration.definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(PlanDefinition|ActivityDefinition)
-</t>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.instantiates</t>
   </si>
   <si>
     <t>Instantiates protocol or definition</t>
   </si>
   <si>
-    <t>A protocol, guideline, orderset or other definition that was adhered to in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>…definition</t>
+    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Event.instantiates</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
@@ -411,7 +406,7 @@
     <t>A larger event of which this particular event is a component or step.</t>
   </si>
   <si>
-    <t>…part of</t>
+    <t>Event.partOf</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
@@ -420,10 +415,10 @@
     <t>MedicationAdministration.status</t>
   </si>
   <si>
-    <t>in-progress | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -435,38 +430,65 @@
     <t>A set of codes indicating the current status of a MedicationAdministration.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status</t>
-  </si>
-  <si>
-    <t>…status</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
+  </si>
+  <si>
+    <t>Event.status</t>
   </si>
   <si>
     <t>.statusCode</t>
   </si>
   <si>
-    <t>status</t>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>RXA-20-Completion Status</t>
   </si>
   <si>
-    <t>MedicationAdministration.category</t>
+    <t>MedicationAdministration.statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Reason administration not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the administration was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
+  </si>
+  <si>
+    <t>negationRationale</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
+  </si>
+  <si>
+    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category</t>
+  </si>
+  <si>
     <t>Type of medication usage</t>
   </si>
   <si>
-    <t>Indicates the type of medication administration and where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A coded concept describing where the medication administered is expected to occur</t>
+    <t>Indicates where the medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -484,7 +506,7 @@
     <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
   </si>
   <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>The set of RxNorm codes to represent medications</t>
@@ -496,13 +518,13 @@
     <t>code</t>
   </si>
   <si>
-    <t>…code</t>
+    <t>Event.code</t>
   </si>
   <si>
     <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
   </si>
   <si>
-    <t>what</t>
+    <t>FiveWs.what[x]</t>
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
@@ -521,13 +543,13 @@
     <t>The person or animal or group receiving the medication.</t>
   </si>
   <si>
-    <t>…subject</t>
+    <t>Event.subject</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
   </si>
   <si>
-    <t>who.focus</t>
+    <t>FiveWs.subject</t>
   </si>
   <si>
     <t>PID-3-Patient ID List</t>
@@ -543,16 +565,16 @@
     <t>Encounter or Episode of Care administered as part of</t>
   </si>
   <si>
-    <t>The visit, admission or other contact between patient and health care provider the medication administration was performed as part of.</t>
-  </si>
-  <si>
-    <t>…context</t>
+    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
   </si>
   <si>
-    <t>context</t>
+    <t>FiveWs.context</t>
   </si>
   <si>
     <t>PV1-19-Visit Number</t>
@@ -590,13 +612,13 @@
     <t>relevantPeriod</t>
   </si>
   <si>
-    <t>…occurrence[x]</t>
+    <t>Event.occurrence[x]</t>
   </si>
   <si>
     <t>.effectiveTime</t>
   </si>
   <si>
-    <t>when.done</t>
+    <t>FiveWs.done[x]</t>
   </si>
   <si>
     <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
@@ -609,23 +631,23 @@
 </t>
   </si>
   <si>
-    <t>Who administered substance</t>
-  </si>
-  <si>
-    <t>The individual who was responsible for giving the medication to the patient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t>Who performed the medication administration and what they did</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the medication administration and how they were involved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>…performer</t>
+    <t>Event.performer</t>
   </si>
   <si>
     <t>.participation[typeCode=PRF]</t>
   </si>
   <si>
-    <t>who.actor</t>
+    <t>FiveWs.actor</t>
   </si>
   <si>
     <t>RXA-10-Administering Provider / PRT-5-Participation Person: PRT-4-Participation='AP' (RXA-10 is deprecated)</t>
@@ -638,10 +660,10 @@
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -653,7 +675,7 @@
     <t>MedicationAdministration.performer.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -666,10 +688,35 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.function</t>
+  </si>
+  <si>
+    <t>Type of performance</t>
+  </si>
+  <si>
+    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
+  </si>
+  <si>
+    <t>A code describing the role an individual played in administering the medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF].functionCode</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.actor</t>
@@ -679,138 +726,53 @@
 </t>
   </si>
   <si>
-    <t>Individual who was performing</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who performed the action.</t>
-  </si>
-  <si>
-    <t>….actor</t>
+    <t>Who performed the medication administration</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the medication administration.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
   </si>
   <si>
     <t>.role</t>
   </si>
   <si>
-    <t>MedicationAdministration.performer.onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t>MedicationAdministration.reasonCode</t>
+  </si>
+  <si>
+    <t>Reason administration performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the medication was given.</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>RXE-27 Give Indication</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
 </t>
   </si>
   <si>
-    <t>Organization organization was acting for</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.</t>
-  </si>
-  <si>
-    <t>….onBehalfOf</t>
-  </si>
-  <si>
-    <t>.role.scopingOrganization</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.notGiven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if medication not administered</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the medication was NOT administered.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it indicates that a administration didn't happen.</t>
-  </si>
-  <si>
-    <t>If this is missing, then the medication was administered</t>
-  </si>
-  <si>
-    <t>…notDone</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>RXA-20-Completion Status='NA'</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.reasonNotGiven</t>
-  </si>
-  <si>
-    <t>Reason administration not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mad-2
-</t>
-  </si>
-  <si>
-    <t>negationRationale</t>
-  </si>
-  <si>
-    <t>…notDoneReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
-  </si>
-  <si>
-    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.reasonCode</t>
-  </si>
-  <si>
-    <t>Reason administration performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the medication was given.</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mad-3
-</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>…reasonGivenCodeableConcept</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>RXE-27 Give Indication</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
-</t>
-  </si>
-  <si>
-    <t>Condition or Observation that supports why the medication was administered</t>
+    <t>Condition or observation that supports why the medication was administered</t>
   </si>
   <si>
     <t>Condition or observation that supports why the medication was administered.</t>
@@ -819,19 +781,19 @@
     <t>This is a reference to a condition that is the reason for the medication request.  If only a code exists, use reasonCode.</t>
   </si>
   <si>
-    <t>…reasonReference</t>
+    <t>Event.reasonReference</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason for use ASSERTION"].value</t>
   </si>
   <si>
-    <t>why</t>
+    <t>FiveWs.why[x]</t>
   </si>
   <si>
     <t>no mapping</t>
   </si>
   <si>
-    <t>MedicationAdministration.prescription</t>
+    <t>MedicationAdministration.request</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/qicore/StructureDefinition/qicore-medicationrequest)
@@ -844,7 +806,10 @@
     <t>The original request, instruction or authority to perform the administration.</t>
   </si>
   <si>
-    <t>…basedOn</t>
+    <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
   </si>
   <si>
     <t>InFullfillmentOf-&gt;SubstanceAdministration</t>
@@ -885,7 +850,7 @@
     <t>Extra information about the medication administration that is not conveyed by the other attributes.</t>
   </si>
   <si>
-    <t>…note</t>
+    <t>Event.note</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=OBS,moodCode=EVN,code="annotation"].value</t>
@@ -900,7 +865,7 @@
     <t>Describes the medication dosage information details e.g. dose, rate, site, route, etc.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
   </si>
   <si>
@@ -939,7 +904,7 @@
     <t>A coded specification of the anatomic site where the medication first entered the body.  For example, "left arm".</t>
   </si>
   <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
@@ -1037,7 +1002,7 @@
     <t>Dose quantity per unit of time</t>
   </si>
   <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.</t>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically, the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time, e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.</t>
   </si>
   <si>
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.</t>
@@ -1062,7 +1027,7 @@
     <t>A summary of the events of interest that have occurred, such as when the administration was verified.</t>
   </si>
   <si>
-    <t>This may not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -1214,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1233,7 +1198,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1259,9 +1224,9 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="81.1875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.44140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="100.578125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="20.3125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1424,9 +1389,7 @@
       <c r="L2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>47</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>42</v>
@@ -1487,19 +1450,19 @@
         <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AL2" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="AM2" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>42</v>
@@ -1510,7 +1473,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1521,28 +1484,28 @@
         <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1592,13 +1555,13 @@
         <v>42</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>42</v>
@@ -1607,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>42</v>
@@ -1627,7 +1590,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1638,7 +1601,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>42</v>
@@ -1647,16 +1610,16 @@
         <v>42</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1707,13 +1670,13 @@
         <v>42</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>42</v>
@@ -1742,7 +1705,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1753,28 +1716,28 @@
         <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1824,13 +1787,13 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>42</v>
@@ -1859,7 +1822,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1870,7 +1833,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1882,16 +1845,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1917,37 +1880,37 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -1976,18 +1939,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>42</v>
@@ -1999,16 +1962,16 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2058,16 +2021,16 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2079,7 +2042,7 @@
         <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>42</v>
@@ -2093,11 +2056,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2116,16 +2079,16 @@
         <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2175,7 +2138,7 @@
         <v>42</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2196,7 +2159,7 @@
         <v>42</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>42</v>
@@ -2210,11 +2173,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2233,16 +2196,16 @@
         <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2292,7 +2255,7 @@
         <v>42</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2313,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>42</v>
@@ -2327,11 +2290,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2344,24 +2307,26 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2409,7 +2374,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2430,7 +2395,7 @@
         <v>42</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>42</v>
@@ -2444,7 +2409,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2467,15 +2432,17 @@
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2524,7 +2491,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2542,13 +2509,13 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>42</v>
@@ -2579,16 +2546,16 @@
         <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2657,10 +2624,10 @@
         <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>42</v>
@@ -2674,7 +2641,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2694,16 +2661,16 @@
         <v>42</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2754,7 +2721,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -2772,10 +2739,10 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>42</v>
@@ -2789,7 +2756,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2797,31 +2764,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2847,66 +2814,66 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2917,10 +2884,10 @@
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>42</v>
@@ -2929,13 +2896,13 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2962,66 +2929,66 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3029,32 +2996,30 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3079,13 +3044,13 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -3103,13 +3068,13 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
@@ -3118,19 +3083,19 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>42</v>
@@ -3138,7 +3103,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3146,30 +3111,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3194,13 +3161,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3218,13 +3185,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3233,7 +3200,7 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>162</v>
@@ -3261,19 +3228,19 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>167</v>
@@ -3336,10 +3303,10 @@
         <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
@@ -3366,7 +3333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>174</v>
       </c>
@@ -3379,10 +3346,10 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>42</v>
@@ -3454,7 +3421,7 @@
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3466,24 +3433,24 @@
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3491,28 +3458,28 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3563,13 +3530,13 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3578,27 +3545,27 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3606,28 +3573,28 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3678,34 +3645,34 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
@@ -3713,7 +3680,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3724,7 +3691,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3733,16 +3700,16 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3793,34 +3760,34 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
@@ -3828,18 +3795,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3851,17 +3818,15 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3910,13 +3875,13 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
@@ -3931,7 +3896,7 @@
         <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>42</v>
@@ -3945,11 +3910,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3962,22 +3927,22 @@
         <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4027,7 +3992,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4048,7 +4013,7 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>42</v>
@@ -4062,39 +4027,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4142,13 +4111,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -4160,10 +4129,10 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>42</v>
@@ -4177,7 +4146,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4188,7 +4157,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4200,13 +4169,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4233,13 +4202,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4257,13 +4226,13 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
@@ -4275,10 +4244,10 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>42</v>
@@ -4290,9 +4259,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4300,39 +4269,35 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4376,13 +4341,13 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
@@ -4394,16 +4359,16 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4411,7 +4376,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4425,7 +4390,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>42</v>
@@ -4434,13 +4399,13 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4467,7 +4432,7 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>235</v>
@@ -4491,7 +4456,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4500,33 +4465,33 @@
         <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4540,7 +4505,7 @@
         <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>42</v>
@@ -4549,7 +4514,7 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>243</v>
@@ -4557,7 +4522,9 @@
       <c r="L29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4582,13 +4549,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4606,7 +4573,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4615,33 +4582,33 @@
         <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4652,7 +4619,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4664,16 +4631,16 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4723,13 +4690,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4741,24 +4708,24 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AO30" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4769,7 +4736,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4781,13 +4748,13 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4838,13 +4805,13 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -4856,16 +4823,16 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -4873,7 +4840,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4896,13 +4863,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4953,7 +4920,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -4971,16 +4938,16 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>42</v>
@@ -4988,7 +4955,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4999,7 +4966,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5011,13 +4978,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5068,28 +5035,28 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>42</v>
@@ -5103,7 +5070,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5114,7 +5081,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5126,13 +5093,13 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5183,19 +5150,19 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
@@ -5204,7 +5171,7 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>42</v>
@@ -5218,18 +5185,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5241,15 +5208,17 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5298,13 +5267,13 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
@@ -5319,7 +5288,7 @@
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>42</v>
@@ -5333,11 +5302,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5350,24 +5319,26 @@
         <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5415,7 +5386,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5436,7 +5407,7 @@
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>42</v>
@@ -5450,40 +5421,38 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5532,13 +5501,13 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
@@ -5553,7 +5522,7 @@
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>42</v>
@@ -5567,7 +5536,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5578,7 +5547,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5590,15 +5559,17 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5623,13 +5594,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5647,42 +5618,42 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AM38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5693,10 +5664,10 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>42</v>
@@ -5705,17 +5676,15 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5740,66 +5709,66 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5810,10 +5779,10 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
@@ -5822,15 +5791,17 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5855,66 +5826,66 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5925,10 +5896,10 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>42</v>
@@ -5937,16 +5908,16 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5972,66 +5943,66 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6042,10 +6013,10 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
@@ -6054,16 +6025,16 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6113,13 +6084,13 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -6128,19 +6099,19 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>42</v>
@@ -6148,7 +6119,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6159,7 +6130,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6171,16 +6142,16 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6230,13 +6201,13 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
@@ -6251,137 +6222,20 @@
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO44" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO44">
+  <autoFilter ref="A1:AO43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6391,7 +6245,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
